--- a/output/conf_cep_inst_mucha.xlsx
+++ b/output/conf_cep_inst_mucha.xlsx
@@ -1,76 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\CEP\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FAB09B-82CA-4081-991E-EDBD21DFFEEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
-    <t xml:space="preserve">year</t>
+    <t>year</t>
   </si>
   <si>
-    <t xml:space="preserve">porc_conf_tribunales</t>
+    <t>porc_conf_tribunales</t>
   </si>
   <si>
-    <t xml:space="preserve">porc_conf_mmc</t>
+    <t>porc_conf_mmc</t>
   </si>
   <si>
-    <t xml:space="preserve">porc_conf_ffaa</t>
+    <t>porc_conf_ffaa</t>
   </si>
   <si>
-    <t xml:space="preserve">porc_conf_iglesia</t>
+    <t>porc_conf_iglesia</t>
   </si>
   <si>
-    <t xml:space="preserve">porc_conf_empresas</t>
+    <t>porc_conf_empresas</t>
   </si>
   <si>
-    <t xml:space="preserve">porc_conf_partidos</t>
+    <t>porc_conf_partidos</t>
   </si>
   <si>
-    <t xml:space="preserve">porc_conf_congreso</t>
+    <t>porc_conf_congreso</t>
   </si>
   <si>
-    <t xml:space="preserve">2002</t>
+    <t>2002</t>
   </si>
   <si>
-    <t xml:space="preserve">2003</t>
+    <t>2003</t>
   </si>
   <si>
-    <t xml:space="preserve">2008</t>
+    <t>2008</t>
   </si>
   <si>
-    <t xml:space="preserve">2009</t>
+    <t>2009</t>
   </si>
   <si>
-    <t xml:space="preserve">2012</t>
+    <t>2012</t>
   </si>
   <si>
-    <t xml:space="preserve">2013</t>
+    <t>2013</t>
   </si>
   <si>
-    <t xml:space="preserve">2014</t>
+    <t>2014</t>
   </si>
   <si>
-    <t xml:space="preserve">2017</t>
+    <t>2017</t>
   </si>
   <si>
-    <t xml:space="preserve">2019</t>
+    <t>2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -99,14 +106,1790 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>Evolución</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419" baseline="0"/>
+              <a:t> "mucha confianza" en instituciones</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>porc_conf_tribunales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.18556701030928E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6805555555555598E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3383768913342502E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3184885290148398E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3184885290148398E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.42276422764228E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1821974965229499E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7618040873854799E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7906336088154302E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3908355795148303E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2117-4DDD-8A78-0B25EA84188D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>porc_conf_mmc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.3698630136986303E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3539518900343603E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6779661016949199E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5070517125587602E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5070517125587602E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6139410187667599E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2774327122153201E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9014084507042301E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0034129692832801E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1432414256893101E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2117-4DDD-8A78-0B25EA84188D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>porc_conf_ffaa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13580246913580199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.120389700765484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15767918088737201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.206122448979592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.206122448979592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14538043478260901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.123603351955307</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15226628895184099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.121733149931224</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5406859448554098E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2117-4DDD-8A78-0B25EA84188D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>porc_conf_iglesia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.59475218658892104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3539518900343603E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32770745428973302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.321552321552322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.321552321552322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.60480640854473E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21423487544483999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.225923244026068</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.197748064743139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12960436562073699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2117-4DDD-8A78-0B25EA84188D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>porc_conf_empresas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.7103064066852401E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4823039555863998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6350677120456198E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1388888888888901E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1388888888888901E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0746887966804999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9258202567760299E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.16194625998548E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5460295151089201E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1659807956104299E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2117-4DDD-8A78-0B25EA84188D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>porc_conf_partidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.6751900483759493E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.44429160935351E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.23045267489712E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8359216745442301E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8359216745442301E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8016249153689899E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3740404745289605E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.09219858156028E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1011699931176899E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7027027027026998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2117-4DDD-8A78-0B25EA84188D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>porc_conf_congreso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.7433155080213901E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2821229050279302E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4916201117318399E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6511627906976702E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6511627906976702E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4246947082768E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.19971771347918E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9285714285714298E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6751900483759493E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7619047619047597E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2117-4DDD-8A78-0B25EA84188D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="463659696"/>
+        <c:axId val="463655760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="463659696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463655760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="463655760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463659696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF992E4-CBDC-4FBB-AEA9-83752848A980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,14 +2170,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,268 +2205,269 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.0618556701030928</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0636986301369863</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.135802469135802</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.594752186588921</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0571030640668524</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.00967519004837595</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0374331550802139</v>
+      <c r="B2" s="1">
+        <v>6.18556701030928E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6.3698630136986303E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.13580246913580199</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.59475218658892104</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5.7103064066852401E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9.6751900483759493E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.7433155080213901E-2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.0368055555555556</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0735395189003436</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" s="1">
+        <v>3.6805555555555598E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7.3539518900343603E-2</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.120389700765484</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.0735395189003436</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.054823039555864</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0144429160935351</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0328212290502793</v>
+      <c r="E3" s="1">
+        <v>7.3539518900343603E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.4823039555863998E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.44429160935351E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.2821229050279302E-2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.0233837689133425</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0467796610169492</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.157679180887372</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.327707454289733</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0363506771204562</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.00823045267489712</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0349162011173184</v>
+      <c r="B4" s="1">
+        <v>2.3383768913342502E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.6779661016949199E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.15767918088737201</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.32770745428973302</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.6350677120456198E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8.23045267489712E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.4916201117318399E-2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.0431848852901484</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0550705171255876</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5" s="1">
+        <v>4.3184885290148398E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.5070517125587602E-2</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.206122448979592</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="1">
         <v>0.321552321552322</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.0513888888888889</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0283592167454423</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0465116279069767</v>
+      <c r="F5" s="1">
+        <v>5.1388888888888901E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.8359216745442301E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4.6511627906976702E-2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.0431848852901484</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0550705171255876</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6" s="1">
+        <v>4.3184885290148398E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.5070517125587602E-2</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.206122448979592</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="1">
         <v>0.321552321552322</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.0513888888888889</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0283592167454423</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0465116279069767</v>
+      <c r="F6" s="1">
+        <v>5.1388888888888901E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.8359216745442301E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.6511627906976702E-2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.0142276422764228</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0261394101876676</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.145380434782609</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0360480640854473</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.020746887966805</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.00880162491536899</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.014246947082768</v>
+      <c r="B7" s="1">
+        <v>1.42276422764228E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.6139410187667599E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.14538043478260901</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.60480640854473E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.0746887966804999E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8.8016249153689899E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.4246947082768E-2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.0118219749652295</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0227743271221532</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="B8" s="1">
+        <v>1.1821974965229499E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.2774327122153201E-2</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.123603351955307</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.21423487544484</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0192582025677603</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.00837404047452896</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0119971771347918</v>
+      <c r="E8" s="1">
+        <v>0.21423487544483999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.9258202567760299E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.3740404745289605E-3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.19971771347918E-2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.0176180408738548</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0190140845070423</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.152266288951841</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="B9" s="1">
+        <v>1.7618040873854799E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.9014084507042301E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.15226628895184099</v>
+      </c>
+      <c r="E9" s="1">
         <v>0.225923244026068</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.0116194625998548</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.00709219858156028</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0192857142857143</v>
+      <c r="F9" s="1">
+        <v>1.16194625998548E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7.09219858156028E-3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.9285714285714298E-2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.0179063360881543</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0300341296928328</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="B10" s="1">
+        <v>1.7906336088154302E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.0034129692832801E-2</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.121733149931224</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="1">
         <v>0.197748064743139</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.0154602951510892</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0110116999311769</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.00967519004837595</v>
+      <c r="F10" s="1">
+        <v>1.5460295151089201E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.1011699931176899E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9.6751900483759493E-3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.00539083557951483</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0114324142568931</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0854068594485541</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.129604365620737</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0116598079561043</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0027027027027027</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.00476190476190476</v>
+      <c r="B11" s="1">
+        <v>5.3908355795148303E-3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.1432414256893101E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.5406859448554098E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.12960436562073699</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.1659807956104299E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.7027027027026998E-3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4.7619047619047597E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>